--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>1.791879261333333</v>
+        <v>1.58850631584</v>
       </c>
       <c r="R2">
-        <v>16.126913352</v>
+        <v>14.29655684256</v>
       </c>
       <c r="S2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="T2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
         <v>18.50855911626666</v>
@@ -638,10 +638,10 @@
         <v>166.5770320464</v>
       </c>
       <c r="S3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="T3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>0.3358074365511111</v>
+        <v>0.34282616672</v>
       </c>
       <c r="R4">
-        <v>3.022266928959999</v>
+        <v>3.08543550048</v>
       </c>
       <c r="S4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="T4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>8.104594312106666</v>
+        <v>7.205063390133333</v>
       </c>
       <c r="R5">
-        <v>48.62756587264</v>
+        <v>43.2303803408</v>
       </c>
       <c r="S5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="T5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>0.27604504736</v>
+        <v>0.2018026190933333</v>
       </c>
       <c r="R6">
-        <v>2.48440542624</v>
+        <v>1.81622357184</v>
       </c>
       <c r="S6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="T6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
     </row>
   </sheetData>
